--- a/TextTransformer_PB_SB.xlsx
+++ b/TextTransformer_PB_SB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C588E6-E61F-4E29-994E-45644ABF056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFF6C88-5AAD-480B-B1AF-98693CE8C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="0" windowWidth="13008" windowHeight="12336" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="0" windowWidth="11100" windowHeight="12336" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Wykonanie zadań o ważności większej lub równej 10</t>
+  </si>
+  <si>
+    <t>Stworzenie funkcji zamieniającej skróty na słowa</t>
   </si>
 </sst>
 </file>
@@ -969,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
